--- a/analyses/flosandfruits/data/pollination.xlsx
+++ b/analyses/flosandfruits/data/pollination.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/microclimates/analyses/flosandfruits/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CatherineChamberlain/Documents/git/microclimates/analyses/flosandfruits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98D044D7-F38A-DC4E-8A58-1D6770AAE988}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10180" yWindow="4740" windowWidth="27640" windowHeight="16940" xr2:uid="{82FC7FCF-DA4B-C544-BD85-F3EFECC81D7B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>genus</t>
   </si>
@@ -125,9 +130,6 @@
   </si>
   <si>
     <t>nudum</t>
-  </si>
-  <si>
-    <t>both</t>
   </si>
   <si>
     <t>wind</t>
@@ -187,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -541,11 +543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D791E6-46B2-D445-8D3A-79A66C68597A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,7 +580,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -589,10 +591,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -602,6 +604,9 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -611,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -625,10 +630,10 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -639,10 +644,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -653,10 +658,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -667,10 +672,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -681,10 +686,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -695,10 +700,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -709,10 +714,10 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -723,10 +728,10 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -737,10 +742,10 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -751,7 +756,7 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -762,7 +767,7 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -771,7 +776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330A1E5B-4E40-CA4A-86CD-0F89BA64AFDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -780,44 +785,44 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
